--- a/ProjectManager/test_login/test_data.xlsx
+++ b/ProjectManager/test_login/test_data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automate Test\Test_PMS\automateTestTeam0\Employee\test_login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automate Test\Test_PMS\automateTestTeam0\Admin\test_login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA13740-1992-4308-98A0-E935A57D0B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30962FBF-3CA4-4A79-AC2D-F478A385F64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Manager" sheetId="4" r:id="rId2"/>
+    <sheet name="Admin" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -416,7 +418,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,4 +519,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850FD9B6-EE38-47DE-894F-A0E7C7A821D7}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="101.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4469ECF-F093-4766-862D-03DA52484F9E}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="101.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectManager/test_login/test_data.xlsx
+++ b/ProjectManager/test_login/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automate Test\Test_PMS\automateTestTeam0\Admin\test_login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\automateTestTeam0\ProjectManager\test_login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30962FBF-3CA4-4A79-AC2D-F478A385F64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8759429D-55CE-44EB-866F-7CCB28516B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -35,15 +35,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>suchada1512@gmail.com</t>
-  </si>
-  <si>
-    <t>suchada</t>
-  </si>
-  <si>
-    <t>ห๊แฟกฟ</t>
-  </si>
-  <si>
     <t>กรณีทดสอบ</t>
   </si>
   <si>
@@ -59,15 +50,9 @@
     <t>Login ไม่สำเร็จเนื่องจากลืมเปลี่ยนภาษา</t>
   </si>
   <si>
-    <t>suchada151@gmail.com</t>
-  </si>
-  <si>
     <t>Login ไม่สำเร็จเนื่องจากกรอก Username ผิด</t>
   </si>
   <si>
-    <t>chuda</t>
-  </si>
-  <si>
     <t>Login ไม่สำเร็จเนื่องจากกรอก Password ผิด</t>
   </si>
   <si>
@@ -75,6 +60,15 @@
   </si>
   <si>
     <t>'</t>
+  </si>
+  <si>
+    <t>pol12@gmail.com</t>
+  </si>
+  <si>
+    <t>pol13@gmail.com</t>
+  </si>
+  <si>
+    <t>pol1234</t>
   </si>
 </sst>
 </file>
@@ -127,13 +121,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,18 +418,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" customWidth="1"/>
-    <col min="3" max="3" width="101.6328125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="101.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,88 +437,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4965AEC4-9670-4E6B-B2EA-563E6A79440A}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{0B80B968-CFF2-4CE7-827D-780C6BA0450D}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{96F9A090-53B2-4267-A5B9-EA34669380B0}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{FC61B631-81EC-48B1-8EA3-9BD7D74C907B}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{4BA4538A-20AF-4472-81CC-57AC2C6EE814}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -525,18 +477,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850FD9B6-EE38-47DE-894F-A0E7C7A821D7}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" customWidth="1"/>
-    <col min="3" max="3" width="101.6328125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="101.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,29 +496,77 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -581,14 +581,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" customWidth="1"/>
-    <col min="3" max="3" width="101.6328125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="101.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,28 +596,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
   </sheetData>

--- a/ProjectManager/test_login/test_data.xlsx
+++ b/ProjectManager/test_login/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\automateTestTeam0\ProjectManager\test_login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automate Test\Test_PMS\automateTestTeam0\ProjectManager\test_login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8759429D-55CE-44EB-866F-7CCB28516B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F592C62-03D5-4ED3-8879-A329D8A4E33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -62,13 +62,19 @@
     <t>'</t>
   </si>
   <si>
-    <t>pol12@gmail.com</t>
-  </si>
-  <si>
-    <t>pol13@gmail.com</t>
-  </si>
-  <si>
-    <t>pol1234</t>
+    <t xml:space="preserve">sunisa.su@gmail.com	</t>
+  </si>
+  <si>
+    <t>sunisa.s</t>
+  </si>
+  <si>
+    <t>หรืรหฟให</t>
+  </si>
+  <si>
+    <t>sunisa</t>
+  </si>
+  <si>
+    <t>sunisa@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -422,14 +428,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="101.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,31 +446,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
     </row>
   </sheetData>
@@ -478,17 +484,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="101.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,27 +505,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -528,38 +534,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
-        <v>12</v>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -569,7 +577,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DD7CBFE2-EF85-448B-AD62-94C8F876BC46}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{5E45ED20-A2F2-4CC7-ABF5-A18303E32E9E}"/>
+    <hyperlink ref="A5:A7" r:id="rId3" display="sunisa.su@gmail.com_x0009_" xr:uid="{F6F23B59-317A-4B89-ADB6-A938AB4C6AB0}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{0EB88DCE-F9B0-495E-B0A0-9FC1BF19EFDF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -581,14 +596,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="101.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="101.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,25 +614,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
     </row>
   </sheetData>
